--- a/alphadata3.xlsx
+++ b/alphadata3.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4500" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="4365" yWindow="4560" windowWidth="19440" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="alphadata3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -802,11 +802,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236099840"/>
-        <c:axId val="236134400"/>
+        <c:axId val="192068608"/>
+        <c:axId val="159011968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236099840"/>
+        <c:axId val="192068608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236134400"/>
+        <c:crossAx val="159011968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -823,7 +823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236134400"/>
+        <c:axId val="159011968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236099840"/>
+        <c:crossAx val="192068608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1900,11 +1900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82266368"/>
-        <c:axId val="82288640"/>
+        <c:axId val="198540672"/>
+        <c:axId val="159462528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82266368"/>
+        <c:axId val="198540672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82288640"/>
+        <c:crossAx val="159462528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1921,11 +1921,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82288640"/>
+        <c:axId val="159462528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="-5"/>
+          <c:max val="2"/>
+          <c:min val="-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1934,7 +1934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82266368"/>
+        <c:crossAx val="198540672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1991,15 +1991,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2308,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,7 +2319,7 @@
     <col min="1" max="7" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2400,12 @@
       <c r="M2" s="1">
         <v>-3.7979599999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <f>MIN(ABS(M2:M49))</f>
+        <v>3.7979599999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.14285700000000001</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>-4.1999700000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.28571400000000002</v>
       </c>
@@ -2483,7 +2487,7 @@
         <v>-4.6798299999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.42857099999999998</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>-5.0495599999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.57142899999999996</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>-5.5059800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.71428599999999998</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>-6.1168100000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.85714299999999999</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>-6.6827500000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>-7.23712</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.2</v>
       </c>
@@ -2729,7 +2733,7 @@
         <v>-3.2252700000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.171429</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>-4.0986700000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.14285700000000001</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>-5.1614699999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.114286</v>
       </c>
@@ -2852,7 +2856,7 @@
         <v>-6.18954</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8.5714299999999993E-2</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>-7.1030800000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>5.7142900000000003E-2</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>-8.2548300000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2.85714E-2</v>
       </c>
